--- a/bands.xlsx
+++ b/bands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\FoCoMX\2019 App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D267CC28-0945-4BF3-AADC-1789087E3F3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C756B-84BA-4B72-9806-FBE74CE4A9C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$M$1:$M$362</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="2413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="2429">
   <si>
     <t>10 cent Stranger</t>
   </si>
@@ -6229,9 +6232,6 @@
     <t>With a style that blends Spanish/Latin american-influenced guitar with the sounds of the 60s and 70s, Montropo crafts memorable songs that span the range of folk and rock music. Following up their 2015 album Follow Meâ€, Montropo plans to release an EP of new music in 2019.</t>
   </si>
   <si>
-    <t>Its rare for a band to have a dramatic artistic impact and dedicated fan base over two decades. However, the eight-member group 12 Cents for Marvin has done just that, all within the college town of Fort Collins, Colorado. Better known as 12 Centsâ€ by their fans, the band consists of talented, finely-tuned members that each supply a distinctive spark to their musical machine.</t>
-  </si>
-  <si>
     <t>Known for their danceable sound and original songs, Last Call Romance delivers a blend of Rockabilly-Swing from Northern Colorado. their songs are described as having &amp;#34;a vintage feel to it all, without a distinct era to connect it to.â€ -Blue Suede News Magazine. The band has played numerous Colorado shows, traveling all over the front range including the UMS festival, the Rockabilly Expo, KRFC events and Radio Shows, Hot Rod Shows and various Summer Concert Series, the KRCC WhatIF festival in Colorado Springs, FoCoMX, CSUs stadium opening, and the Bohemian Nights NewWest Festivals in Fort Collins. The band was also accepted to the prestigious SpokesBUZZ incubator program in 2016. In 2018, they had the honor of playing the oldest Rockabilly festival in the U.K., the Hemsby Rock n Roll Weekender! Dawn Duncan, of Scene magazine wrote, &amp;#34;Their old-meets-new style of putting a modern twist on retro-inspired sounds and themes has made them a memorable standout in the music scene here and respected by their musician peers.&amp;#34; The band strives for an old-fashioned vibe that evokes a time when a catchy, energetic sound was heard on a car radio or at the dance hall. Tabitha Hernandez, of the Examiner.comï»¿ï»¿ described their performance as, A sound straight from days past... this band sang original hits and had the audience cutting a rug; the masses bee-bopped and jived away to the beats.&amp;#34; They are currently recording a new album release for 2019. Chris Winters (Song Writer, Lead Vocals and Rhythm Guitar) Emily Winters (Song Writer, Lead Vocals) Johnny Dethray (Upright Bass) Varying musicians on Lead Guitar, Saxophone and Drums</t>
   </si>
   <si>
@@ -7268,6 +7268,57 @@
   </si>
   <si>
     <t>Michael Kirkpatrick</t>
+  </si>
+  <si>
+    <t>img/artist/rodriguez.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/54517118_2278781658810381_346380294854541312_n.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/625f-0712-4e14-bdaf-6775c0d48fd5.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/5k8b2435-4.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/12717732_1106350519398084_897113809011697318_n.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/32955508_1856914197662448_7801150095604318208_n.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/IMG_3477-nwotwzctps8ud5pnovacolt5b5mtchslgywsqlt5dc.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/plane_opt.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/19884254_1489715647762385_4104122192108483900_n.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/fiercebad.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/IMG_1420.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/Gabrielle-Louise-Vertical3-Color-Mark-Sink-medium.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/53026305_2225765277683983_6964436147892125696_n.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/COVS_Final_32-copy-1-768x512.jpg</t>
+  </si>
+  <si>
+    <t>Its rare for a band to have a dramatic artistic impact and dedicated fan base over two decades. However, the eight-member group 12 Cents for Marvin has done just that, all within the college town of Fort Collins, Colorado. Better known as 12 Cents by their fans, the band consists of talented, finely-tuned members that each supply a distinctive spark to their musical machine.</t>
+  </si>
+  <si>
+    <t>img/artist/WWR - Promo 2.jpg</t>
+  </si>
+  <si>
+    <t>img/artist/bg-2018.jpg</t>
   </si>
 </sst>
 </file>
@@ -7665,9 +7716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7746,7 +7797,7 @@
         <v>740</v>
       </c>
       <c r="I2" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>449</v>
@@ -7758,7 +7809,7 @@
         <v>1893</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>1868</v>
@@ -7811,7 +7862,7 @@
         <v>1894</v>
       </c>
       <c r="M3" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>1869</v>
@@ -7861,7 +7912,7 @@
         <v>889</v>
       </c>
       <c r="M4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="P4" t="s">
         <v>1132</v>
@@ -7908,7 +7959,7 @@
         <v>1872</v>
       </c>
       <c r="M5" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="P5" t="s">
         <v>1431</v>
@@ -7955,7 +8006,7 @@
         <v>1895</v>
       </c>
       <c r="M6" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>1691</v>
@@ -8005,7 +8056,7 @@
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>1690</v>
+        <v>2412</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>1692</v>
@@ -8052,7 +8103,7 @@
         <v>1129</v>
       </c>
       <c r="M8" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="N8" t="s">
         <v>1693</v>
@@ -8102,7 +8153,7 @@
         <v>1896</v>
       </c>
       <c r="M9" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
@@ -8150,10 +8201,10 @@
         <v>160</v>
       </c>
       <c r="L10" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M10" t="s">
-        <v>1690</v>
+        <v>2427</v>
       </c>
       <c r="O10" t="s">
         <v>1136</v>
@@ -8203,7 +8254,7 @@
         <v>1897</v>
       </c>
       <c r="M11" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="N11" t="s">
         <v>1694</v>
@@ -8297,7 +8348,7 @@
         <v>1898</v>
       </c>
       <c r="M13" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="N13" t="s">
         <v>1695</v>
@@ -8391,10 +8442,10 @@
         <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="M15" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="N15" t="s">
         <v>1696</v>
@@ -8447,7 +8498,7 @@
         <v>1899</v>
       </c>
       <c r="M16" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="N16" t="s">
         <v>1697</v>
@@ -8500,7 +8551,7 @@
         <v>1900</v>
       </c>
       <c r="M17" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>929</v>
@@ -8553,7 +8604,7 @@
         <v>1901</v>
       </c>
       <c r="M18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="Q18">
         <f>VLOOKUP(F18,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$500)</f>
@@ -8597,7 +8648,7 @@
         <v>1902</v>
       </c>
       <c r="M19" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>930</v>
@@ -8650,7 +8701,7 @@
         <v>1874</v>
       </c>
       <c r="M20" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="N20" t="s">
         <v>1698</v>
@@ -8703,7 +8754,7 @@
         <v>1903</v>
       </c>
       <c r="M21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>931</v>
@@ -8756,7 +8807,7 @@
         <v>1904</v>
       </c>
       <c r="M22" t="s">
-        <v>1690</v>
+        <v>2413</v>
       </c>
       <c r="O22" t="s">
         <v>1145</v>
@@ -8803,7 +8854,7 @@
         <v>1905</v>
       </c>
       <c r="M23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="Q23">
         <f>VLOOKUP(F23,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$500)</f>
@@ -8847,7 +8898,7 @@
         <v>1906</v>
       </c>
       <c r="M24" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>932</v>
@@ -8900,7 +8951,7 @@
         <v>826</v>
       </c>
       <c r="M25" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="N25" t="s">
         <v>1699</v>
@@ -8953,7 +9004,7 @@
         <v>1875</v>
       </c>
       <c r="M26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="N26" t="s">
         <v>1700</v>
@@ -9000,7 +9051,7 @@
         <v>1907</v>
       </c>
       <c r="M27" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="N27" t="s">
         <v>1701</v>
@@ -9053,7 +9104,7 @@
         <v>1908</v>
       </c>
       <c r="M28" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="N28" t="s">
         <v>1702</v>
@@ -9106,7 +9157,7 @@
         <v>2028</v>
       </c>
       <c r="M29" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="N29" t="s">
         <v>1703</v>
@@ -9203,7 +9254,7 @@
         <v>1909</v>
       </c>
       <c r="M31" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="N31" t="s">
         <v>1704</v>
@@ -9256,7 +9307,7 @@
         <v>1876</v>
       </c>
       <c r="M32" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>933</v>
@@ -9347,7 +9398,7 @@
         <v>1910</v>
       </c>
       <c r="M34" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="O34" t="s">
         <v>1154</v>
@@ -9397,7 +9448,7 @@
         <v>1911</v>
       </c>
       <c r="M35" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="N35" t="s">
         <v>1705</v>
@@ -9450,7 +9501,7 @@
         <v>1912</v>
       </c>
       <c r="M36" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>934</v>
@@ -9503,7 +9554,7 @@
         <v>2029</v>
       </c>
       <c r="M37" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="N37" t="s">
         <v>1706</v>
@@ -9556,7 +9607,7 @@
         <v>827</v>
       </c>
       <c r="M38" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="N38" t="s">
         <v>1707</v>
@@ -9609,7 +9660,7 @@
         <v>1688</v>
       </c>
       <c r="M39" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>935</v>
@@ -9662,7 +9713,7 @@
         <v>828</v>
       </c>
       <c r="M40" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="N40" t="s">
         <v>1708</v>
@@ -9712,7 +9763,7 @@
         <v>1913</v>
       </c>
       <c r="M41" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>936</v>
@@ -9765,7 +9816,7 @@
         <v>1877</v>
       </c>
       <c r="M42" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="N42" t="s">
         <v>1709</v>
@@ -9818,7 +9869,7 @@
         <v>1873</v>
       </c>
       <c r="M43" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="N43" t="s">
         <v>1710</v>
@@ -9871,7 +9922,7 @@
         <v>1914</v>
       </c>
       <c r="M44" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>1871</v>
@@ -9921,7 +9972,7 @@
         <v>1915</v>
       </c>
       <c r="M45" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="N45" t="s">
         <v>1711</v>
@@ -9974,7 +10025,7 @@
         <v>2030</v>
       </c>
       <c r="M46" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="N46" t="s">
         <v>1712</v>
@@ -10027,7 +10078,7 @@
         <v>891</v>
       </c>
       <c r="M47" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="P47" t="s">
         <v>1167</v>
@@ -10074,7 +10125,7 @@
         <v>829</v>
       </c>
       <c r="M48" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>937</v>
@@ -10127,7 +10178,7 @@
         <v>892</v>
       </c>
       <c r="M49" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>938</v>
@@ -10177,7 +10228,7 @@
         <v>1916</v>
       </c>
       <c r="M50" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="O50" t="s">
         <v>1169</v>
@@ -10227,7 +10278,7 @@
         <v>830</v>
       </c>
       <c r="M51" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>939</v>
@@ -10280,7 +10331,7 @@
         <v>1878</v>
       </c>
       <c r="M52" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="N52" t="s">
         <v>1713</v>
@@ -10333,7 +10384,7 @@
         <v>2031</v>
       </c>
       <c r="M53" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="N53" t="s">
         <v>1714</v>
@@ -10386,7 +10437,7 @@
         <v>1917</v>
       </c>
       <c r="M54" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="N54" t="s">
         <v>1715</v>
@@ -10480,7 +10531,7 @@
         <v>1918</v>
       </c>
       <c r="M56" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="N56" t="s">
         <v>1716</v>
@@ -10530,7 +10581,7 @@
         <v>2032</v>
       </c>
       <c r="M57" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>940</v>
@@ -10583,7 +10634,7 @@
         <v>1919</v>
       </c>
       <c r="M58" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>941</v>
@@ -10636,7 +10687,7 @@
         <v>2033</v>
       </c>
       <c r="M59" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="N59" t="s">
         <v>1717</v>
@@ -10689,7 +10740,7 @@
         <v>1920</v>
       </c>
       <c r="M60" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="N60" t="s">
         <v>1718</v>
@@ -10739,7 +10790,7 @@
         <v>2034</v>
       </c>
       <c r="M61" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="N61" t="s">
         <v>1719</v>
@@ -10789,7 +10840,7 @@
         <v>2026</v>
       </c>
       <c r="M62" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="N62" t="s">
         <v>1720</v>
@@ -10839,7 +10890,7 @@
         <v>1921</v>
       </c>
       <c r="M63" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>942</v>
@@ -10892,7 +10943,7 @@
         <v>893</v>
       </c>
       <c r="M64" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="N64" t="s">
         <v>1721</v>
@@ -10945,7 +10996,7 @@
         <v>1922</v>
       </c>
       <c r="M65" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="N65" t="s">
         <v>1722</v>
@@ -10995,10 +11046,10 @@
         <v>2</v>
       </c>
       <c r="L66" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="M66" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="N66" t="s">
         <v>1723</v>
@@ -11051,7 +11102,7 @@
         <v>894</v>
       </c>
       <c r="M67" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="N67" t="s">
         <v>1724</v>
@@ -11104,7 +11155,7 @@
         <v>1923</v>
       </c>
       <c r="M68" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="N68" t="s">
         <v>1725</v>
@@ -11157,7 +11208,7 @@
         <v>1924</v>
       </c>
       <c r="M69" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="N69" t="s">
         <v>1726</v>
@@ -11207,7 +11258,7 @@
         <v>1925</v>
       </c>
       <c r="M70" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>943</v>
@@ -11257,7 +11308,7 @@
         <v>2035</v>
       </c>
       <c r="M71" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="N71" t="s">
         <v>1727</v>
@@ -11310,7 +11361,7 @@
         <v>2027</v>
       </c>
       <c r="M72" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="N72" t="s">
         <v>1728</v>
@@ -11363,7 +11414,7 @@
         <v>895</v>
       </c>
       <c r="M73" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="N73" t="s">
         <v>1729</v>
@@ -11416,7 +11467,7 @@
         <v>2036</v>
       </c>
       <c r="M74" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="N74" t="s">
         <v>1730</v>
@@ -11469,7 +11520,7 @@
         <v>831</v>
       </c>
       <c r="M75" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="N75" t="s">
         <v>1731</v>
@@ -11522,7 +11573,7 @@
         <v>832</v>
       </c>
       <c r="M76" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="N76" t="s">
         <v>1732</v>
@@ -11575,7 +11626,7 @@
         <v>833</v>
       </c>
       <c r="M77" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="N77" t="s">
         <v>1733</v>
@@ -11748,7 +11799,7 @@
         <v>1926</v>
       </c>
       <c r="M81" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>944</v>
@@ -11798,7 +11849,7 @@
         <v>2037</v>
       </c>
       <c r="M82" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>945</v>
@@ -11851,7 +11902,7 @@
         <v>896</v>
       </c>
       <c r="M83" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="N83" t="s">
         <v>1734</v>
@@ -11898,7 +11949,7 @@
         <v>2038</v>
       </c>
       <c r="M84" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>946</v>
@@ -11995,7 +12046,7 @@
         <v>1927</v>
       </c>
       <c r="M86" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>947</v>
@@ -12048,7 +12099,7 @@
         <v>2039</v>
       </c>
       <c r="M87" t="s">
-        <v>1690</v>
+        <v>2428</v>
       </c>
       <c r="N87" t="s">
         <v>1736</v>
@@ -12101,7 +12152,7 @@
         <v>1928</v>
       </c>
       <c r="M88" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="N88" t="s">
         <v>1737</v>
@@ -12154,7 +12205,7 @@
         <v>1879</v>
       </c>
       <c r="M89" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="N89" t="s">
         <v>1738</v>
@@ -12204,7 +12255,7 @@
         <v>1929</v>
       </c>
       <c r="M90" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>948</v>
@@ -12257,7 +12308,7 @@
         <v>834</v>
       </c>
       <c r="M91" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="N91" t="s">
         <v>1739</v>
@@ -12310,7 +12361,7 @@
         <v>897</v>
       </c>
       <c r="M92" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>949</v>
@@ -12357,7 +12408,7 @@
         <v>2040</v>
       </c>
       <c r="M93" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="N93" t="s">
         <v>1740</v>
@@ -12410,7 +12461,7 @@
         <v>1930</v>
       </c>
       <c r="M94" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="N94" t="s">
         <v>1741</v>
@@ -12460,7 +12511,7 @@
         <v>2024</v>
       </c>
       <c r="M95" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>950</v>
@@ -12513,7 +12564,7 @@
         <v>2041</v>
       </c>
       <c r="M96" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="N96" t="s">
         <v>1742</v>
@@ -12566,7 +12617,7 @@
         <v>898</v>
       </c>
       <c r="M97" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>1743</v>
@@ -12619,7 +12670,7 @@
         <v>1931</v>
       </c>
       <c r="M98" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>951</v>
@@ -12666,7 +12717,7 @@
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N99" t="s">
         <v>1744</v>
@@ -12760,7 +12811,7 @@
         <v>1932</v>
       </c>
       <c r="M101" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="N101" t="s">
         <v>1745</v>
@@ -12813,7 +12864,7 @@
         <v>1933</v>
       </c>
       <c r="M102" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>952</v>
@@ -12866,7 +12917,7 @@
         <v>835</v>
       </c>
       <c r="M103" t="s">
-        <v>1690</v>
+        <v>2414</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>953</v>
@@ -12919,7 +12970,7 @@
         <v>836</v>
       </c>
       <c r="M104" t="s">
-        <v>1690</v>
+        <v>2415</v>
       </c>
       <c r="N104" t="s">
         <v>1746</v>
@@ -12972,7 +13023,7 @@
         <v>1880</v>
       </c>
       <c r="M105" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="N105" t="s">
         <v>1747</v>
@@ -13025,7 +13076,7 @@
         <v>1934</v>
       </c>
       <c r="M106" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="N106" t="s">
         <v>1748</v>
@@ -13078,7 +13129,7 @@
         <v>1935</v>
       </c>
       <c r="M107" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N107" t="s">
         <v>1749</v>
@@ -13131,7 +13182,7 @@
         <v>2042</v>
       </c>
       <c r="M108" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>954</v>
@@ -13184,7 +13235,7 @@
         <v>2043</v>
       </c>
       <c r="M109" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="N109" t="s">
         <v>1750</v>
@@ -13284,7 +13335,7 @@
         <v>1936</v>
       </c>
       <c r="M111" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="N111" t="s">
         <v>1752</v>
@@ -13337,7 +13388,7 @@
         <v>2025</v>
       </c>
       <c r="M112" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="N112" t="s">
         <v>1753</v>
@@ -13390,7 +13441,7 @@
         <v>899</v>
       </c>
       <c r="M113" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="N113" t="s">
         <v>1754</v>
@@ -13443,7 +13494,7 @@
         <v>2044</v>
       </c>
       <c r="M114" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>955</v>
@@ -13537,7 +13588,7 @@
         <v>2019</v>
       </c>
       <c r="M116" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="P116" t="s">
         <v>1510</v>
@@ -13584,7 +13635,7 @@
         <v>1937</v>
       </c>
       <c r="M117" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="N117" t="s">
         <v>1755</v>
@@ -13637,7 +13688,7 @@
         <v>1938</v>
       </c>
       <c r="M118" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="N118" t="s">
         <v>1756</v>
@@ -13690,7 +13741,7 @@
         <v>1939</v>
       </c>
       <c r="M119" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="N119" t="s">
         <v>1757</v>
@@ -13743,7 +13794,7 @@
         <v>1940</v>
       </c>
       <c r="M120" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="N120" t="s">
         <v>1758</v>
@@ -13796,7 +13847,7 @@
         <v>1941</v>
       </c>
       <c r="M121" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>957</v>
@@ -13849,7 +13900,7 @@
         <v>2045</v>
       </c>
       <c r="M122" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="N122" t="s">
         <v>1759</v>
@@ -13902,7 +13953,7 @@
         <v>1942</v>
       </c>
       <c r="M123" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="N123" t="s">
         <v>1760</v>
@@ -13955,7 +14006,7 @@
         <v>2046</v>
       </c>
       <c r="M124" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>956</v>
@@ -14008,7 +14059,7 @@
         <v>1943</v>
       </c>
       <c r="M125" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="N125" t="s">
         <v>1761</v>
@@ -14061,7 +14112,7 @@
         <v>1944</v>
       </c>
       <c r="M126" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>958</v>
@@ -14114,7 +14165,7 @@
         <v>1945</v>
       </c>
       <c r="M127" t="s">
-        <v>1690</v>
+        <v>2416</v>
       </c>
       <c r="P127" t="s">
         <v>1232</v>
@@ -14161,7 +14212,7 @@
         <v>1946</v>
       </c>
       <c r="M128" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="N128" s="1" t="s">
         <v>952</v>
@@ -14214,7 +14265,7 @@
         <v>1947</v>
       </c>
       <c r="M129" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>952</v>
@@ -14267,7 +14318,7 @@
         <v>837</v>
       </c>
       <c r="M130" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="N130" t="s">
         <v>1762</v>
@@ -14317,7 +14368,7 @@
         <v>1948</v>
       </c>
       <c r="M131" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>959</v>
@@ -14370,7 +14421,7 @@
         <v>2047</v>
       </c>
       <c r="M132" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="N132" t="s">
         <v>1763</v>
@@ -14420,7 +14471,7 @@
         <v>838</v>
       </c>
       <c r="M133" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="N133" s="1" t="s">
         <v>960</v>
@@ -14473,7 +14524,7 @@
         <v>1949</v>
       </c>
       <c r="M134" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="N134" s="1" t="s">
         <v>961</v>
@@ -14523,7 +14574,7 @@
         <v>32</v>
       </c>
       <c r="M135" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="N135" t="s">
         <v>1764</v>
@@ -14576,7 +14627,7 @@
         <v>839</v>
       </c>
       <c r="M136" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>962</v>
@@ -14629,7 +14680,7 @@
         <v>840</v>
       </c>
       <c r="M137" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="N137" t="s">
         <v>1765</v>
@@ -14679,7 +14730,7 @@
         <v>900</v>
       </c>
       <c r="M138" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="N138" t="s">
         <v>1766</v>
@@ -14729,7 +14780,7 @@
         <v>2048</v>
       </c>
       <c r="M139" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="N139" t="s">
         <v>1767</v>
@@ -14782,7 +14833,7 @@
         <v>2020</v>
       </c>
       <c r="M140" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>963</v>
@@ -14835,7 +14886,7 @@
         <v>1950</v>
       </c>
       <c r="M141" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="N141" t="s">
         <v>1768</v>
@@ -14888,7 +14939,7 @@
         <v>901</v>
       </c>
       <c r="M142" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="N142" s="1" t="s">
         <v>969</v>
@@ -14935,7 +14986,7 @@
         <v>1951</v>
       </c>
       <c r="M143" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="N143" t="s">
         <v>1769</v>
@@ -14988,7 +15039,7 @@
         <v>1689</v>
       </c>
       <c r="M144" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="N144" t="s">
         <v>1770</v>
@@ -15041,7 +15092,7 @@
         <v>2049</v>
       </c>
       <c r="M145" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="N145" t="s">
         <v>1771</v>
@@ -15091,7 +15142,7 @@
         <v>25</v>
       </c>
       <c r="M146" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>964</v>
@@ -15144,7 +15195,7 @@
         <v>2050</v>
       </c>
       <c r="M147" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N147" t="s">
         <v>1772</v>
@@ -15197,7 +15248,7 @@
         <v>841</v>
       </c>
       <c r="M148" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="N148" t="s">
         <v>1773</v>
@@ -15250,7 +15301,7 @@
         <v>2051</v>
       </c>
       <c r="M149" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="N149" t="s">
         <v>1774</v>
@@ -15303,7 +15354,7 @@
         <v>902</v>
       </c>
       <c r="M150" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="N150" t="s">
         <v>1775</v>
@@ -15356,7 +15407,7 @@
         <v>2052</v>
       </c>
       <c r="M151" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="N151" t="s">
         <v>1776</v>
@@ -15409,7 +15460,7 @@
         <v>2053</v>
       </c>
       <c r="M152" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>965</v>
@@ -15462,7 +15513,7 @@
         <v>1952</v>
       </c>
       <c r="M153" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>966</v>
@@ -15515,7 +15566,7 @@
         <v>842</v>
       </c>
       <c r="M154" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>967</v>
@@ -15565,7 +15616,7 @@
         <v>2054</v>
       </c>
       <c r="M155" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="N155" t="s">
         <v>1777</v>
@@ -15615,7 +15666,7 @@
         <v>843</v>
       </c>
       <c r="M156" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="N156" t="s">
         <v>1778</v>
@@ -15668,7 +15719,7 @@
         <v>844</v>
       </c>
       <c r="M157" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="O157" t="s">
         <v>1258</v>
@@ -15718,7 +15769,7 @@
         <v>1953</v>
       </c>
       <c r="M158" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="N158" t="s">
         <v>1779</v>
@@ -15771,7 +15822,7 @@
         <v>1954</v>
       </c>
       <c r="M159" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="N159" t="s">
         <v>1780</v>
@@ -15824,7 +15875,7 @@
         <v>845</v>
       </c>
       <c r="M160" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="N160" t="s">
         <v>1781</v>
@@ -15877,7 +15928,7 @@
         <v>1955</v>
       </c>
       <c r="M161" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="N161" t="s">
         <v>1782</v>
@@ -15930,7 +15981,7 @@
         <v>1956</v>
       </c>
       <c r="M162" t="s">
-        <v>1690</v>
+        <v>2417</v>
       </c>
       <c r="N162" s="1" t="s">
         <v>968</v>
@@ -15980,7 +16031,7 @@
         <v>1957</v>
       </c>
       <c r="M163" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="P163" t="s">
         <v>1264</v>
@@ -16027,7 +16078,7 @@
         <v>846</v>
       </c>
       <c r="M164" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>970</v>
@@ -16077,7 +16128,7 @@
         <v>2021</v>
       </c>
       <c r="M165" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="N165" t="s">
         <v>1783</v>
@@ -16130,7 +16181,7 @@
         <v>2055</v>
       </c>
       <c r="M166" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="N166" t="s">
         <v>1784</v>
@@ -16183,7 +16234,7 @@
         <v>1958</v>
       </c>
       <c r="M167" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="N167" t="s">
         <v>1785</v>
@@ -16236,7 +16287,7 @@
         <v>903</v>
       </c>
       <c r="M168" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="Q168">
         <f>VLOOKUP(F168,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$500)</f>
@@ -16333,7 +16384,7 @@
         <v>1959</v>
       </c>
       <c r="M170" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="N170" s="1" t="s">
         <v>972</v>
@@ -16427,7 +16478,7 @@
         <v>1960</v>
       </c>
       <c r="M172" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>973</v>
@@ -16480,7 +16531,7 @@
         <v>848</v>
       </c>
       <c r="M173" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>974</v>
@@ -16533,7 +16584,7 @@
         <v>1881</v>
       </c>
       <c r="M174" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="O174" t="s">
         <v>1273</v>
@@ -16583,7 +16634,7 @@
         <v>1961</v>
       </c>
       <c r="M175" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>1870</v>
@@ -16636,7 +16687,7 @@
         <v>849</v>
       </c>
       <c r="M176" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>975</v>
@@ -16686,7 +16737,7 @@
         <v>2056</v>
       </c>
       <c r="M177" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="N177" t="s">
         <v>1786</v>
@@ -16739,7 +16790,7 @@
         <v>1962</v>
       </c>
       <c r="M178" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>976</v>
@@ -16792,7 +16843,7 @@
         <v>850</v>
       </c>
       <c r="M179" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>977</v>
@@ -16845,7 +16896,7 @@
         <v>1963</v>
       </c>
       <c r="M180" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="N180" t="s">
         <v>1787</v>
@@ -16898,7 +16949,7 @@
         <v>1964</v>
       </c>
       <c r="M181" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N181" s="1" t="s">
         <v>977</v>
@@ -16948,7 +16999,7 @@
         <v>1965</v>
       </c>
       <c r="M182" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="N182" s="1" t="s">
         <v>978</v>
@@ -17001,7 +17052,7 @@
         <v>1966</v>
       </c>
       <c r="M183" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N183" t="s">
         <v>1788</v>
@@ -17051,7 +17102,7 @@
         <v>1967</v>
       </c>
       <c r="M184" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="O184" t="s">
         <v>1283</v>
@@ -17098,7 +17149,7 @@
         <v>1968</v>
       </c>
       <c r="M185" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="N185" t="s">
         <v>1789</v>
@@ -17151,7 +17202,7 @@
         <v>1969</v>
       </c>
       <c r="M186" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="N186" s="1" t="s">
         <v>979</v>
@@ -17201,7 +17252,7 @@
         <v>1970</v>
       </c>
       <c r="M187" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="N187" s="1" t="s">
         <v>980</v>
@@ -17251,7 +17302,7 @@
         <v>904</v>
       </c>
       <c r="M188" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="N188" s="1" t="s">
         <v>981</v>
@@ -17304,7 +17355,7 @@
         <v>851</v>
       </c>
       <c r="M189" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="N189" t="s">
         <v>1790</v>
@@ -17357,7 +17408,7 @@
         <v>2057</v>
       </c>
       <c r="M190" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="N190" t="s">
         <v>1791</v>
@@ -17410,7 +17461,7 @@
         <v>2058</v>
       </c>
       <c r="M191" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="N191" t="s">
         <v>1792</v>
@@ -17463,7 +17514,7 @@
         <v>2059</v>
       </c>
       <c r="M192" t="s">
-        <v>1690</v>
+        <v>2418</v>
       </c>
       <c r="N192" t="s">
         <v>1793</v>
@@ -17516,7 +17567,7 @@
         <v>1971</v>
       </c>
       <c r="M193" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="N193" s="1" t="s">
         <v>982</v>
@@ -17569,7 +17620,7 @@
         <v>1882</v>
       </c>
       <c r="M194" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="N194" s="1" t="s">
         <v>983</v>
@@ -17619,7 +17670,7 @@
         <v>2060</v>
       </c>
       <c r="M195" t="s">
-        <v>1690</v>
+        <v>2419</v>
       </c>
       <c r="N195" t="s">
         <v>1794</v>
@@ -17672,7 +17723,7 @@
         <v>2061</v>
       </c>
       <c r="M196" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="N196" t="s">
         <v>1795</v>
@@ -17769,7 +17820,7 @@
         <v>2063</v>
       </c>
       <c r="M198" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="N198" t="s">
         <v>1796</v>
@@ -17822,7 +17873,7 @@
         <v>1883</v>
       </c>
       <c r="M199" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N199" t="s">
         <v>1797</v>
@@ -17916,7 +17967,7 @@
         <v>852</v>
       </c>
       <c r="M201" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="N201" s="1" t="s">
         <v>984</v>
@@ -17966,7 +18017,7 @@
         <v>2064</v>
       </c>
       <c r="M202" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="N202" t="s">
         <v>1798</v>
@@ -18019,7 +18070,7 @@
         <v>2065</v>
       </c>
       <c r="M203" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="N203" t="s">
         <v>1799</v>
@@ -18069,10 +18120,10 @@
         <v>5</v>
       </c>
       <c r="L204" t="s">
-        <v>2066</v>
+        <v>2426</v>
       </c>
       <c r="M204" t="s">
-        <v>1690</v>
+        <v>2420</v>
       </c>
       <c r="N204" t="s">
         <v>1800</v>
@@ -18125,7 +18176,7 @@
         <v>1972</v>
       </c>
       <c r="M205" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="P205" t="s">
         <v>1302</v>
@@ -18254,7 +18305,7 @@
         <v>1973</v>
       </c>
       <c r="M208" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="N208" s="1" t="s">
         <v>985</v>
@@ -18304,7 +18355,7 @@
         <v>853</v>
       </c>
       <c r="M209" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="N209" s="1" t="s">
         <v>986</v>
@@ -18354,7 +18405,7 @@
         <v>854</v>
       </c>
       <c r="M210" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="N210" t="s">
         <v>1801</v>
@@ -18404,10 +18455,10 @@
         <v>44</v>
       </c>
       <c r="L211" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="M211" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="N211" t="s">
         <v>1802</v>
@@ -18460,7 +18511,7 @@
         <v>855</v>
       </c>
       <c r="M212" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="N212" s="1" t="s">
         <v>987</v>
@@ -18513,7 +18564,7 @@
         <v>905</v>
       </c>
       <c r="M213" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="P213" t="s">
         <v>1308</v>
@@ -18560,7 +18611,7 @@
         <v>1974</v>
       </c>
       <c r="M214" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="N214" t="s">
         <v>1803</v>
@@ -18613,7 +18664,7 @@
         <v>906</v>
       </c>
       <c r="M215" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N215" t="s">
         <v>1804</v>
@@ -18663,10 +18714,10 @@
         <v>49</v>
       </c>
       <c r="L216" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="M216" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="N216" t="s">
         <v>1805</v>
@@ -18719,7 +18770,7 @@
         <v>1975</v>
       </c>
       <c r="M217" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="N217" s="1" t="s">
         <v>988</v>
@@ -18769,7 +18820,7 @@
         <v>1976</v>
       </c>
       <c r="M218" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="N218" t="s">
         <v>1806</v>
@@ -18816,7 +18867,7 @@
         <v>856</v>
       </c>
       <c r="M219" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="N219" s="1" t="s">
         <v>989</v>
@@ -18866,10 +18917,10 @@
         <v>20</v>
       </c>
       <c r="L220" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="M220" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="N220" t="s">
         <v>1807</v>
@@ -18922,7 +18973,7 @@
         <v>857</v>
       </c>
       <c r="M221" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="N221" s="1" t="s">
         <v>990</v>
@@ -18975,7 +19026,7 @@
         <v>1977</v>
       </c>
       <c r="M222" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="N222" s="1" t="s">
         <v>991</v>
@@ -19028,7 +19079,7 @@
         <v>858</v>
       </c>
       <c r="M223" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="N223" s="1" t="s">
         <v>992</v>
@@ -19075,10 +19126,10 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="M224" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="N224" t="s">
         <v>1808</v>
@@ -19131,7 +19182,7 @@
         <v>859</v>
       </c>
       <c r="M225" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="N225" t="s">
         <v>1809</v>
@@ -19184,7 +19235,7 @@
         <v>1978</v>
       </c>
       <c r="M226" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>993</v>
@@ -19237,7 +19288,7 @@
         <v>907</v>
       </c>
       <c r="M227" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>994</v>
@@ -19290,7 +19341,7 @@
         <v>1884</v>
       </c>
       <c r="M228" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N228" t="s">
         <v>1810</v>
@@ -19384,7 +19435,7 @@
         <v>1979</v>
       </c>
       <c r="M230" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="N230" t="s">
         <v>1811</v>
@@ -19437,7 +19488,7 @@
         <v>1980</v>
       </c>
       <c r="M231" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="O231" t="s">
         <v>1324</v>
@@ -19563,10 +19614,10 @@
         <v>8</v>
       </c>
       <c r="L234" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M234" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="N234" t="s">
         <v>1812</v>
@@ -19619,7 +19670,7 @@
         <v>860</v>
       </c>
       <c r="M235" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>995</v>
@@ -19669,7 +19720,7 @@
         <v>1981</v>
       </c>
       <c r="M236" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="N236" s="1" t="s">
         <v>996</v>
@@ -19722,7 +19773,7 @@
         <v>1982</v>
       </c>
       <c r="M237" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="P237" t="s">
         <v>1327</v>
@@ -19769,7 +19820,7 @@
         <v>2022</v>
       </c>
       <c r="M238" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>997</v>
@@ -19822,7 +19873,7 @@
         <v>861</v>
       </c>
       <c r="M239" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="O239" t="s">
         <v>1136</v>
@@ -19872,7 +19923,7 @@
         <v>1983</v>
       </c>
       <c r="M240" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="N240" t="s">
         <v>1813</v>
@@ -19925,7 +19976,7 @@
         <v>1984</v>
       </c>
       <c r="M241" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="P241" t="s">
         <v>1330</v>
@@ -19972,7 +20023,7 @@
         <v>862</v>
       </c>
       <c r="M242" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="N242" s="1" t="s">
         <v>998</v>
@@ -20022,7 +20073,7 @@
         <v>1985</v>
       </c>
       <c r="M243" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="N243" s="1" t="s">
         <v>999</v>
@@ -20069,10 +20120,10 @@
         <v>20</v>
       </c>
       <c r="L244" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="M244" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="N244" t="s">
         <v>1814</v>
@@ -20125,7 +20176,7 @@
         <v>1986</v>
       </c>
       <c r="M245" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N245" t="s">
         <v>1815</v>
@@ -20175,10 +20226,10 @@
         <v>5</v>
       </c>
       <c r="L246" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="M246" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>1000</v>
@@ -20272,7 +20323,7 @@
         <v>1987</v>
       </c>
       <c r="M248" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="N248" t="s">
         <v>1816</v>
@@ -20325,7 +20376,7 @@
         <v>1885</v>
       </c>
       <c r="M249" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="N249" s="1" t="s">
         <v>1000</v>
@@ -20375,10 +20426,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="M250" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N250" t="s">
         <v>1817</v>
@@ -20472,7 +20523,7 @@
         <v>1988</v>
       </c>
       <c r="M252" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="P252" t="s">
         <v>1604</v>
@@ -20516,10 +20567,10 @@
         <v>20</v>
       </c>
       <c r="L253" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="M253" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="N253" t="s">
         <v>1818</v>
@@ -20569,10 +20620,10 @@
         <v>25</v>
       </c>
       <c r="L254" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="M254" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="N254" s="1" t="s">
         <v>1001</v>
@@ -20625,7 +20676,7 @@
         <v>863</v>
       </c>
       <c r="M255" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="P255" t="s">
         <v>1341</v>
@@ -20713,7 +20764,7 @@
         <v>1989</v>
       </c>
       <c r="M257" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="N257" s="1" t="s">
         <v>1002</v>
@@ -20766,7 +20817,7 @@
         <v>864</v>
       </c>
       <c r="M258" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N258" t="s">
         <v>1819</v>
@@ -20819,7 +20870,7 @@
         <v>1990</v>
       </c>
       <c r="M259" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="N259" t="s">
         <v>1820</v>
@@ -20869,10 +20920,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M260" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="N260" t="s">
         <v>1821</v>
@@ -20922,10 +20973,10 @@
         <v>56</v>
       </c>
       <c r="L261" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M261" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="N261" t="s">
         <v>1822</v>
@@ -20978,7 +21029,7 @@
         <v>1886</v>
       </c>
       <c r="M262" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="N262" t="s">
         <v>1823</v>
@@ -21028,10 +21079,10 @@
         <v>2</v>
       </c>
       <c r="L263" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="M263" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="N263" t="s">
         <v>1824</v>
@@ -21084,7 +21135,7 @@
         <v>1991</v>
       </c>
       <c r="M264" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="N264" t="s">
         <v>1825</v>
@@ -21137,7 +21188,7 @@
         <v>1887</v>
       </c>
       <c r="M265" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="N265" t="s">
         <v>1826</v>
@@ -21187,7 +21238,7 @@
         <v>865</v>
       </c>
       <c r="M266" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="N266" t="s">
         <v>1827</v>
@@ -21240,7 +21291,7 @@
         <v>1888</v>
       </c>
       <c r="M267" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="N267" t="s">
         <v>1828</v>
@@ -21293,7 +21344,7 @@
         <v>866</v>
       </c>
       <c r="M268" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="N268" s="1" t="s">
         <v>1003</v>
@@ -21343,10 +21394,10 @@
         <v>2</v>
       </c>
       <c r="L269" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M269" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="N269" s="1" t="s">
         <v>1004</v>
@@ -21399,7 +21450,7 @@
         <v>908</v>
       </c>
       <c r="M270" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="N270" s="1" t="s">
         <v>1004</v>
@@ -21452,7 +21503,7 @@
         <v>909</v>
       </c>
       <c r="M271" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="O271" t="s">
         <v>1356</v>
@@ -21502,7 +21553,7 @@
         <v>867</v>
       </c>
       <c r="M272" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="N272" t="s">
         <v>1829</v>
@@ -21637,7 +21688,7 @@
         <v>1889</v>
       </c>
       <c r="M275" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O275" t="s">
         <v>1209</v>
@@ -21687,7 +21738,7 @@
         <v>868</v>
       </c>
       <c r="M276" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="N276" t="s">
         <v>1830</v>
@@ -21737,7 +21788,7 @@
         <v>1992</v>
       </c>
       <c r="M277" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="N277" s="1" t="s">
         <v>1005</v>
@@ -21790,7 +21841,7 @@
         <v>869</v>
       </c>
       <c r="M278" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="N278" t="s">
         <v>1831</v>
@@ -21840,10 +21891,10 @@
         <v>14</v>
       </c>
       <c r="L279" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="M279" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="N279" s="1" t="s">
         <v>1006</v>
@@ -21896,7 +21947,7 @@
         <v>1993</v>
       </c>
       <c r="M280" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="O280" t="s">
         <v>1361</v>
@@ -21946,7 +21997,7 @@
         <v>1994</v>
       </c>
       <c r="M281" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="O281" t="s">
         <v>1362</v>
@@ -22037,7 +22088,7 @@
         <v>1995</v>
       </c>
       <c r="M283" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="N283" t="s">
         <v>1832</v>
@@ -22090,7 +22141,7 @@
         <v>1890</v>
       </c>
       <c r="M284" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="N284" s="1" t="s">
         <v>1007</v>
@@ -22143,7 +22194,7 @@
         <v>1996</v>
       </c>
       <c r="M285" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="N285" s="1" t="s">
         <v>1008</v>
@@ -22237,7 +22288,7 @@
         <v>870</v>
       </c>
       <c r="M287" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="P287" t="s">
         <v>1366</v>
@@ -22284,7 +22335,7 @@
         <v>910</v>
       </c>
       <c r="M288" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="N288" t="s">
         <v>1833</v>
@@ -22337,7 +22388,7 @@
         <v>911</v>
       </c>
       <c r="M289" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="N289" t="s">
         <v>1834</v>
@@ -22390,7 +22441,7 @@
         <v>1997</v>
       </c>
       <c r="M290" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="N290" t="s">
         <v>1835</v>
@@ -22440,10 +22491,10 @@
         <v>5</v>
       </c>
       <c r="L291" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="M291" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="N291" s="1" t="s">
         <v>1009</v>
@@ -22493,7 +22544,7 @@
         <v>11</v>
       </c>
       <c r="M292" t="s">
-        <v>1690</v>
+        <v>2421</v>
       </c>
       <c r="Q292">
         <f>VLOOKUP(F292,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$500)</f>
@@ -22537,7 +22588,7 @@
         <v>871</v>
       </c>
       <c r="M293" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="N293" t="s">
         <v>1836</v>
@@ -22590,7 +22641,7 @@
         <v>1998</v>
       </c>
       <c r="M294" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="N294" t="s">
         <v>1837</v>
@@ -22684,7 +22735,7 @@
         <v>872</v>
       </c>
       <c r="M296" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="N296" s="1" t="s">
         <v>1010</v>
@@ -22734,7 +22785,7 @@
         <v>873</v>
       </c>
       <c r="M297" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="N297" s="1" t="s">
         <v>1011</v>
@@ -22787,7 +22838,7 @@
         <v>1999</v>
       </c>
       <c r="M298" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="O298" t="s">
         <v>1209</v>
@@ -22837,7 +22888,7 @@
         <v>912</v>
       </c>
       <c r="M299" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="N299" s="1" t="s">
         <v>1012</v>
@@ -22887,7 +22938,7 @@
         <v>2000</v>
       </c>
       <c r="M300" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="N300" s="1" t="s">
         <v>1013</v>
@@ -22937,7 +22988,7 @@
         <v>874</v>
       </c>
       <c r="M301" t="s">
-        <v>1690</v>
+        <v>2422</v>
       </c>
       <c r="N301" s="1" t="s">
         <v>1014</v>
@@ -22987,7 +23038,7 @@
         <v>913</v>
       </c>
       <c r="M302" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="N302" t="s">
         <v>1838</v>
@@ -23040,7 +23091,7 @@
         <v>875</v>
       </c>
       <c r="M303" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="N303" s="1" t="s">
         <v>1015</v>
@@ -23090,10 +23141,10 @@
         <v>49</v>
       </c>
       <c r="L304" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="M304" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="N304" t="s">
         <v>1839</v>
@@ -23146,7 +23197,7 @@
         <v>914</v>
       </c>
       <c r="M305" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="N305" t="s">
         <v>1840</v>
@@ -23196,7 +23247,7 @@
         <v>2001</v>
       </c>
       <c r="M306" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="N306" t="s">
         <v>1841</v>
@@ -23249,7 +23300,7 @@
         <v>2002</v>
       </c>
       <c r="M307" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q307">
         <f>VLOOKUP(F307,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$500)</f>
@@ -23290,10 +23341,10 @@
         <v>49</v>
       </c>
       <c r="L308" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="M308" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="N308" s="1" t="s">
         <v>1016</v>
@@ -23346,7 +23397,7 @@
         <v>2003</v>
       </c>
       <c r="M309" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="N309" s="1" t="s">
         <v>1017</v>
@@ -23396,10 +23447,10 @@
         <v>2</v>
       </c>
       <c r="L310" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="M310" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="N310" t="s">
         <v>1842</v>
@@ -23452,7 +23503,7 @@
         <v>2004</v>
       </c>
       <c r="M311" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="O311" t="s">
         <v>1386</v>
@@ -23502,7 +23553,7 @@
         <v>915</v>
       </c>
       <c r="M312" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="N312" t="s">
         <v>1843</v>
@@ -23555,7 +23606,7 @@
         <v>916</v>
       </c>
       <c r="M313" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="N313" t="s">
         <v>1844</v>
@@ -23608,7 +23659,7 @@
         <v>2023</v>
       </c>
       <c r="M314" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="N314" t="s">
         <v>1845</v>
@@ -23661,7 +23712,7 @@
         <v>876</v>
       </c>
       <c r="M315" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="N315" s="1" t="s">
         <v>1018</v>
@@ -23711,7 +23762,7 @@
         <v>2005</v>
       </c>
       <c r="M316" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="N316" s="1" t="s">
         <v>1019</v>
@@ -23761,10 +23812,10 @@
         <v>17</v>
       </c>
       <c r="L317" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="M317" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="N317" t="s">
         <v>1846</v>
@@ -23817,7 +23868,7 @@
         <v>2006</v>
       </c>
       <c r="M318" t="s">
-        <v>1690</v>
+        <v>2423</v>
       </c>
       <c r="N318" s="1" t="s">
         <v>1020</v>
@@ -23867,10 +23918,10 @@
         <v>2</v>
       </c>
       <c r="L319" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="M319" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="N319" s="1" t="s">
         <v>1021</v>
@@ -23923,7 +23974,7 @@
         <v>917</v>
       </c>
       <c r="M320" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="N320" t="s">
         <v>1847</v>
@@ -23973,10 +24024,10 @@
         <v>14</v>
       </c>
       <c r="L321" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="M321" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="N321" t="s">
         <v>1848</v>
@@ -24029,7 +24080,7 @@
         <v>2007</v>
       </c>
       <c r="M322" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="N322" t="s">
         <v>1849</v>
@@ -24082,7 +24133,7 @@
         <v>877</v>
       </c>
       <c r="M323" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="N323" s="1" t="s">
         <v>1022</v>
@@ -24135,7 +24186,7 @@
         <v>918</v>
       </c>
       <c r="M324" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="O324" t="s">
         <v>1209</v>
@@ -24182,10 +24233,10 @@
         <v>20</v>
       </c>
       <c r="L325" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="M325" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="N325" t="s">
         <v>1850</v>
@@ -24238,7 +24289,7 @@
         <v>919</v>
       </c>
       <c r="M326" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="N326" s="1" t="s">
         <v>1023</v>
@@ -24291,7 +24342,7 @@
         <v>878</v>
       </c>
       <c r="M327" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="N327" s="1" t="s">
         <v>1024</v>
@@ -24344,7 +24395,7 @@
         <v>2008</v>
       </c>
       <c r="M328" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="N328" s="1" t="s">
         <v>1025</v>
@@ -24397,7 +24448,7 @@
         <v>879</v>
       </c>
       <c r="M329" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="O329" t="s">
         <v>1403</v>
@@ -24447,7 +24498,7 @@
         <v>920</v>
       </c>
       <c r="M330" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="N330" t="s">
         <v>1851</v>
@@ -24497,10 +24548,10 @@
         <v>2</v>
       </c>
       <c r="L331" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="M331" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="N331" s="1" t="s">
         <v>1026</v>
@@ -24553,7 +24604,7 @@
         <v>2009</v>
       </c>
       <c r="M332" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="N332" t="s">
         <v>1852</v>
@@ -24606,7 +24657,7 @@
         <v>880</v>
       </c>
       <c r="M333" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="N333" s="1" t="s">
         <v>1027</v>
@@ -24659,7 +24710,7 @@
         <v>881</v>
       </c>
       <c r="M334" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="N334" t="s">
         <v>1853</v>
@@ -24712,7 +24763,7 @@
         <v>921</v>
       </c>
       <c r="M335" t="s">
-        <v>1690</v>
+        <v>2424</v>
       </c>
       <c r="N335" t="s">
         <v>1854</v>
@@ -24759,10 +24810,10 @@
         <v>2</v>
       </c>
       <c r="L336" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="M336" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="N336" s="1" t="s">
         <v>1028</v>
@@ -24812,7 +24863,7 @@
         <v>2010</v>
       </c>
       <c r="M337" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="P337" t="s">
         <v>1669</v>
@@ -24859,7 +24910,7 @@
         <v>2011</v>
       </c>
       <c r="M338" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="N338" t="s">
         <v>1855</v>
@@ -24909,7 +24960,7 @@
         <v>882</v>
       </c>
       <c r="M339" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="N339" s="1" t="s">
         <v>1029</v>
@@ -25003,10 +25054,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M341" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="N341" t="s">
         <v>1856</v>
@@ -25059,7 +25110,7 @@
         <v>884</v>
       </c>
       <c r="M342" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="O342" t="s">
         <v>1209</v>
@@ -25109,7 +25160,7 @@
         <v>2012</v>
       </c>
       <c r="M343" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="N343" s="1" t="s">
         <v>1030</v>
@@ -25159,7 +25210,7 @@
         <v>39</v>
       </c>
       <c r="M344" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="O344" t="s">
         <v>1209</v>
@@ -25253,7 +25304,7 @@
         <v>2013</v>
       </c>
       <c r="M346" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="N346" t="s">
         <v>1858</v>
@@ -25303,10 +25354,10 @@
         <v>39</v>
       </c>
       <c r="L347" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="M347" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="N347" t="s">
         <v>1859</v>
@@ -25359,7 +25410,7 @@
         <v>885</v>
       </c>
       <c r="M348" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="N348" t="s">
         <v>1860</v>
@@ -25412,7 +25463,7 @@
         <v>886</v>
       </c>
       <c r="M349" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="N349" s="1" t="s">
         <v>1031</v>
@@ -25462,7 +25513,7 @@
         <v>1891</v>
       </c>
       <c r="M350" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="O350" t="s">
         <v>1419</v>
@@ -25512,7 +25563,7 @@
         <v>922</v>
       </c>
       <c r="M351" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="N351" t="s">
         <v>1861</v>
@@ -25565,7 +25616,7 @@
         <v>2014</v>
       </c>
       <c r="M352" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="N352" t="s">
         <v>1862</v>
@@ -25615,10 +25666,10 @@
         <v>17</v>
       </c>
       <c r="L353" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="M353" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="N353" t="s">
         <v>1863</v>
@@ -25671,7 +25722,7 @@
         <v>887</v>
       </c>
       <c r="M354" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="N354" s="1" t="s">
         <v>1032</v>
@@ -25724,7 +25775,7 @@
         <v>2015</v>
       </c>
       <c r="M355" t="s">
-        <v>1690</v>
+        <v>2425</v>
       </c>
       <c r="N355" s="1" t="s">
         <v>1033</v>
@@ -25777,7 +25828,7 @@
         <v>888</v>
       </c>
       <c r="M356" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="N356" t="s">
         <v>1864</v>
@@ -25824,10 +25875,10 @@
         <v>25</v>
       </c>
       <c r="L357" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="M357" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="N357" t="s">
         <v>1865</v>
@@ -25880,7 +25931,7 @@
         <v>1892</v>
       </c>
       <c r="M358" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="N358" t="s">
         <v>1866</v>
@@ -25933,7 +25984,7 @@
         <v>2016</v>
       </c>
       <c r="M359" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="N359" t="s">
         <v>1867</v>
@@ -25986,7 +26037,7 @@
         <v>2017</v>
       </c>
       <c r="M360" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="N360" s="1" t="s">
         <v>1034</v>
@@ -26039,7 +26090,7 @@
         <v>2018</v>
       </c>
       <c r="M361" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="N361" s="1" t="s">
         <v>1035</v>
@@ -26101,6 +26152,7 @@
       <c r="R362" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="M1:M362" xr:uid="{85F03BE5-A8E2-4B7D-951E-C96FA1A80F09}"/>
   <conditionalFormatting sqref="R1:R1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",R1)))</formula>

--- a/bands.xlsx
+++ b/bands.xlsx
@@ -7422,9 +7422,6 @@
     <t>The aim of Rejekted Kauses is to create meditative atmospheres out of the noise found in rhythm, percussion and the cycling beats that can happen in the midst of chaos. Philosophically based in the idea of Iconoclasm and meditation; expressed in live performance as the 'noise shaman' of Northern CO.</t>
   </si>
   <si>
-    <t>img/kauses.jpg</t>
-  </si>
-  <si>
     <t>https://rejektedkauses.bandcamp.com/</t>
   </si>
   <si>
@@ -7456,6 +7453,9 @@
   </si>
   <si>
     <t>https://www.reverbnation.com/widget_code/html_widget/artist_6431351?widget_id=55&amp;pwc[song_ids]=30455854&amp;context_type=song</t>
+  </si>
+  <si>
+    <t>img/artist/kauses.jpg</t>
   </si>
 </sst>
 </file>
@@ -7860,9 +7860,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N352" sqref="N352"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7917,7 +7917,7 @@
         <v>1040</v>
       </c>
       <c r="R1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -8025,7 +8025,7 @@
         <v>2097</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O4" t="s">
         <v>1131</v>
@@ -9877,13 +9877,13 @@
         <v>2462</v>
       </c>
       <c r="M66" t="s">
+        <v>2474</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="O66" t="s">
         <v>2463</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>2465</v>
-      </c>
-      <c r="O66" t="s">
-        <v>2464</v>
       </c>
       <c r="Q66">
         <f>VLOOKUP(F66,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$874)</f>
@@ -11537,25 +11537,25 @@
         <v>740</v>
       </c>
       <c r="I120" t="s">
+        <v>2465</v>
+      </c>
+      <c r="J120" t="s">
         <v>2466</v>
-      </c>
-      <c r="J120" t="s">
-        <v>2467</v>
       </c>
       <c r="K120" t="s">
         <v>32</v>
       </c>
       <c r="L120" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="M120" t="s">
         <v>2468</v>
       </c>
-      <c r="M120" t="s">
+      <c r="N120" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="O120" t="s">
         <v>2469</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>2471</v>
-      </c>
-      <c r="O120" t="s">
-        <v>2470</v>
       </c>
       <c r="Q120">
         <f>VLOOKUP(F120,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$874)</f>
@@ -18694,7 +18694,7 @@
         <v>2247</v>
       </c>
       <c r="N352" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="O352" t="s">
         <v>1274</v>

--- a/bands.xlsx
+++ b/bands.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\FoCoMX\2019 App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\FoCoMX\2019 App\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3821578-EA51-4C5D-B376-0062346ACEBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$M$1:$M$746</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="2497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="2535">
   <si>
     <t>10 cent Stranger</t>
   </si>
@@ -7522,12 +7523,126 @@
   </si>
   <si>
     <t>https://www.facebook.com/theCROMA/</t>
+  </si>
+  <si>
+    <t>Gasoline Lollipops</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/artists/gasoline-lollipops</t>
+  </si>
+  <si>
+    <t>Gasoline Lollipops is a Colorado band that combines the sincerity of dirt-floor folk with the energy and rebelliousness of punk. It's an all-new incarnation of alt-country that’s both high-energy and heartfelt, like the American highways soundtrack.</t>
+  </si>
+  <si>
+    <t>img/artist/GasPops Gothic 11-23-2018.jpg</t>
+  </si>
+  <si>
+    <t>http://gasolinelollipops.com/</t>
+  </si>
+  <si>
+    <t>http://facebook.com/gasolinelollipops</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/track/4wSPQ4g89qXRdlY2261eJW</t>
+  </si>
+  <si>
+    <t>Little Shop of Physics</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/artists/little-shop-physics</t>
+  </si>
+  <si>
+    <t>The Little Shop of Physics (LSOP) is excited to partner with FoCoMX to share the wonders of science with the Fort Collins community and to help demonstrate how science is connected to everything including music! Based in the Colorado State University College of Natural Science, LSOP has always been a hands-on program. Kids are the scientists in the Little Shop of Physics. But we don’t just teach science, we teach that science is something that anyone can do, that it is field that is interesting and accessible to anyone. We believe—and we demonstrate—that any one, of any age, can understand science.</t>
+  </si>
+  <si>
+    <t>img/artist/LSOP Graphic CSU Colors 2015 copy.jpg</t>
+  </si>
+  <si>
+    <t>Tiny Mule Songs</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/artists/tiny-mule-songs</t>
+  </si>
+  <si>
+    <t>Childrens Program</t>
+  </si>
+  <si>
+    <t>Music for Kids of All Ages!&lt;br&gt;Tiny Mule provides a celebration of music for everyone, singing originals such as Stinky Old Cowboy and Snow on our Scarecrow to covers of classic American songs Bushel and a Peck alongside The Beatles Ob La Di Ob La Da or The Goldfish by Laurie Berkner.</t>
+  </si>
+  <si>
+    <t>img/artist/Tinye Mule.jpg</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/tinymulesongs</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/artists/overflow</t>
+  </si>
+  <si>
+    <t>Overflow is born out of the youth group at Vineyard Church of the Rockies.  After starting a project where we teach Middle and High Schoolers how to play instruments, run sound and do multi media we discovered some students that were advanced in their ability to write and preform music.  The result is an unforgetable sound with a positive message.</t>
+  </si>
+  <si>
+    <t>img/artist/Overflow_Warehouse.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcejjE1ZI2NAVcXXAdNRZdA</t>
+  </si>
+  <si>
+    <t>Adrienne Rae Ash is the guitarist and singer of Plasma Canvas. She also makes acoustic music under her own name and has released one EP and one single, entitled "Hope You Haunt Me" and "Silver/Clean Sheets" respectively. Originally from Missouri, Ash began playing guitar at the age of 12 and immediately fell in love with metal and punk. Later on in life, she discovered how much she loved playing her songs on an acoustic guitar, and began to approach her writing in that way. Her songs in Plasma Canvas often begin on an acoustic guitar. As a result, she enjoys being able to translate the different sounds and energies that come from performing her songs unplugged in a live setting.</t>
+  </si>
+  <si>
+    <t>img/adrienne.jpg</t>
+  </si>
+  <si>
+    <t>http://adrienneraeash.bandcamp.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/adrienneraeash</t>
+  </si>
+  <si>
+    <t>Poinciana</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/artists/poinciana</t>
+  </si>
+  <si>
+    <t>Sawyer: The bio should say - Poinciana is just a couple boys in a band and they are a band and they are boys, in a band.</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/track/523zXM5hvRCUr5ijHcfMAT</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_poinciana/</t>
+  </si>
+  <si>
+    <t>My Body Sings Electric</t>
+  </si>
+  <si>
+    <t>https://focomx.focoma.org/artists/my-body-sings-electric</t>
+  </si>
+  <si>
+    <t>My Body Sings Electric has spent more than a decade tirelessly building a following for their playfully honest blend of indie, alternative and post-hardcore rock. The band is prepared to release their most ambitious work yet with a new album slated for 201 mixed and produced by Jason Livermore - Rise Against, A Day To Remember.</t>
+  </si>
+  <si>
+    <t>img/artist/promo-photo-small.jpg</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/track/2jgblR3zYSKkG1PfEJ4SWF</t>
+  </si>
+  <si>
+    <t>http://mybodysingselectric.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MyBodySingsElectric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -7571,10 +7686,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7936,18 +8052,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I718" sqref="I718"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="9" max="9" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="102.75" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
@@ -8080,7 +8196,7 @@
         <v>804</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E136" si="0">CONCATENATE(C4,"-",D4)</f>
+        <f t="shared" ref="E4:E137" si="0">CONCATENATE(C4,"-",D4)</f>
         <v>3:30pm-4:30pm</v>
       </c>
       <c r="F4" t="s">
@@ -12144,8 +12260,55 @@
       <c r="A137">
         <v>136</v>
       </c>
+      <c r="B137" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C137" t="s">
+        <v>790</v>
+      </c>
+      <c r="D137" t="s">
+        <v>786</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="0"/>
+        <v>7:30pm-8:15pm</v>
+      </c>
+      <c r="F137" t="s">
+        <v>744</v>
+      </c>
+      <c r="H137" t="s">
+        <v>740</v>
+      </c>
+      <c r="I137" t="s">
+        <v>2528</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="K137" t="s">
+        <v>17</v>
+      </c>
+      <c r="L137" t="s">
+        <v>2530</v>
+      </c>
+      <c r="M137" t="s">
+        <v>2531</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O137" t="s">
+        <v>2533</v>
+      </c>
+      <c r="P137" t="s">
+        <v>2534</v>
+      </c>
+      <c r="Q137">
+        <f>VLOOKUP(F137,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$884)</f>
+        <v>746</v>
+      </c>
       <c r="R137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -17315,8 +17478,55 @@
       <c r="A305">
         <v>304</v>
       </c>
+      <c r="B305" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C305" t="s">
+        <v>757</v>
+      </c>
+      <c r="D305" t="s">
+        <v>738</v>
+      </c>
+      <c r="E305" t="str">
+        <f t="shared" si="2"/>
+        <v>11:00pm-12:00am</v>
+      </c>
+      <c r="F305" t="s">
+        <v>774</v>
+      </c>
+      <c r="H305" t="s">
+        <v>734</v>
+      </c>
+      <c r="I305" t="s">
+        <v>2497</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="K305" t="s">
+        <v>2</v>
+      </c>
+      <c r="L305" t="s">
+        <v>2499</v>
+      </c>
+      <c r="M305" t="s">
+        <v>2500</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="O305" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P305" t="s">
+        <v>2502</v>
+      </c>
+      <c r="Q305">
+        <f>VLOOKUP(F305,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$884)</f>
+        <v>782</v>
+      </c>
       <c r="R305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -20881,8 +21091,46 @@
       <c r="A421">
         <v>420</v>
       </c>
+      <c r="B421" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C421" t="s">
+        <v>801</v>
+      </c>
+      <c r="D421" t="s">
+        <v>781</v>
+      </c>
+      <c r="E421" t="str">
+        <f t="shared" si="3"/>
+        <v>5:00pm-9:00pm</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H421" t="s">
+        <v>740</v>
+      </c>
+      <c r="I421" t="s">
+        <v>2504</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="K421" t="s">
+        <v>32</v>
+      </c>
+      <c r="L421" t="s">
+        <v>2506</v>
+      </c>
+      <c r="M421" t="s">
+        <v>2507</v>
+      </c>
+      <c r="Q421">
+        <f>VLOOKUP(F421,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$884)</f>
+        <v>757</v>
+      </c>
       <c r="R421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -20944,8 +21192,49 @@
       <c r="A423">
         <v>422</v>
       </c>
+      <c r="B423" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C423" t="s">
+        <v>801</v>
+      </c>
+      <c r="D423" t="s">
+        <v>800</v>
+      </c>
+      <c r="E423" t="str">
+        <f t="shared" si="3"/>
+        <v>5:00pm-5:30pm</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H423" t="s">
+        <v>740</v>
+      </c>
+      <c r="I423" t="s">
+        <v>2508</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="K423" t="s">
+        <v>2510</v>
+      </c>
+      <c r="L423" t="s">
+        <v>2511</v>
+      </c>
+      <c r="M423" t="s">
+        <v>2512</v>
+      </c>
+      <c r="P423" t="s">
+        <v>2513</v>
+      </c>
+      <c r="Q423">
+        <f>VLOOKUP(F423,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$884)</f>
+        <v>757</v>
+      </c>
       <c r="R423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22766,8 +23055,49 @@
       <c r="A483">
         <v>482</v>
       </c>
+      <c r="B483" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C483" t="s">
+        <v>795</v>
+      </c>
+      <c r="D483" t="s">
+        <v>792</v>
+      </c>
+      <c r="E483" t="str">
+        <f t="shared" si="3"/>
+        <v>6:30pm-7:00pm</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H483" t="s">
+        <v>740</v>
+      </c>
+      <c r="I483" t="s">
+        <v>2514</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="K483" t="s">
+        <v>8</v>
+      </c>
+      <c r="L483" t="s">
+        <v>2516</v>
+      </c>
+      <c r="M483" t="s">
+        <v>2517</v>
+      </c>
+      <c r="O483" t="s">
+        <v>2518</v>
+      </c>
+      <c r="Q483">
+        <f>VLOOKUP(F483,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$884)</f>
+        <v>757</v>
+      </c>
       <c r="R483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -23839,7 +24169,7 @@
         <v>776</v>
       </c>
       <c r="R518" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -25898,15 +26228,59 @@
         <v>758</v>
       </c>
       <c r="R586" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:18">
       <c r="A587">
         <v>586</v>
       </c>
+      <c r="B587" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C587" t="s">
+        <v>786</v>
+      </c>
+      <c r="D587" t="s">
+        <v>781</v>
+      </c>
+      <c r="E587" t="str">
+        <f t="shared" ref="E587" si="6">CONCATENATE(C587,"-",D587)</f>
+        <v>8:15pm-9:00pm</v>
+      </c>
+      <c r="F587" t="s">
+        <v>788</v>
+      </c>
+      <c r="H587" t="s">
+        <v>740</v>
+      </c>
+      <c r="I587" t="s">
+        <v>21</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K587" t="s">
+        <v>20</v>
+      </c>
+      <c r="L587" t="s">
+        <v>2519</v>
+      </c>
+      <c r="M587" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O587" t="s">
+        <v>2521</v>
+      </c>
+      <c r="P587" t="s">
+        <v>2522</v>
+      </c>
+      <c r="Q587">
+        <f>VLOOKUP(F587,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$884)</f>
+        <v>758</v>
+      </c>
       <c r="R587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:18">
@@ -26991,9 +27365,49 @@
       <c r="A623">
         <v>622</v>
       </c>
-      <c r="N623" s="1"/>
+      <c r="B623" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="D623" t="s">
+        <v>773</v>
+      </c>
+      <c r="E623" t="str">
+        <f t="shared" si="5"/>
+        <v>9:15pm-10:00pm</v>
+      </c>
+      <c r="F623" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H623" t="s">
+        <v>740</v>
+      </c>
+      <c r="I623" t="s">
+        <v>2523</v>
+      </c>
+      <c r="J623" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="K623" t="s">
+        <v>8</v>
+      </c>
+      <c r="L623" t="s">
+        <v>2525</v>
+      </c>
+      <c r="N623" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O623" t="s">
+        <v>2527</v>
+      </c>
+      <c r="Q623">
+        <f>VLOOKUP(F623,Sheet1!$A$2:$B$40,2,FALSE)+COUNT($A$2:$A$884)</f>
+        <v>757</v>
+      </c>
       <c r="R623" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:18">
@@ -28384,7 +28798,7 @@
         <v>757</v>
       </c>
       <c r="E668" t="str">
-        <f t="shared" ref="E668:E746" si="6">CONCATENATE(C668,"-",D668)</f>
+        <f t="shared" ref="E668:E746" si="7">CONCATENATE(C668,"-",D668)</f>
         <v>10:00pm-11:00pm</v>
       </c>
       <c r="F668" t="s">
@@ -28448,7 +28862,7 @@
         <v>757</v>
       </c>
       <c r="E670" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:00pm-11:00pm</v>
       </c>
       <c r="F670" t="s">
@@ -28508,7 +28922,7 @@
         <v>757</v>
       </c>
       <c r="E672" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:15pm-11:00pm</v>
       </c>
       <c r="F672" t="s">
@@ -28571,7 +28985,7 @@
         <v>757</v>
       </c>
       <c r="E674" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:15pm-11:00pm</v>
       </c>
       <c r="F674" t="s">
@@ -28635,7 +29049,7 @@
         <v>765</v>
       </c>
       <c r="E676" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:30pm-11:15pm</v>
       </c>
       <c r="F676" t="s">
@@ -28699,7 +29113,7 @@
         <v>765</v>
       </c>
       <c r="E678" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:30pm-11:15pm</v>
       </c>
       <c r="F678" t="s">
@@ -28763,7 +29177,7 @@
         <v>765</v>
       </c>
       <c r="E680" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:30pm-11:15pm</v>
       </c>
       <c r="F680" t="s">
@@ -28823,7 +29237,7 @@
         <v>765</v>
       </c>
       <c r="E682" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:30pm-11:15pm</v>
       </c>
       <c r="F682" t="s">
@@ -28886,7 +29300,7 @@
         <v>765</v>
       </c>
       <c r="E684" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:30pm-11:15pm</v>
       </c>
       <c r="F684" t="s">
@@ -28950,7 +29364,7 @@
         <v>765</v>
       </c>
       <c r="E686" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:30pm-11:15pm</v>
       </c>
       <c r="F686" t="s">
@@ -29013,7 +29427,7 @@
         <v>765</v>
       </c>
       <c r="E688" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:30pm-11:15pm</v>
       </c>
       <c r="F688" t="s">
@@ -29077,7 +29491,7 @@
         <v>765</v>
       </c>
       <c r="E690" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:30pm-11:15pm</v>
       </c>
       <c r="F690" t="s">
@@ -29140,7 +29554,7 @@
         <v>762</v>
       </c>
       <c r="E692" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:45pm-11:30pm</v>
       </c>
       <c r="F692" t="s">
@@ -29200,7 +29614,7 @@
         <v>762</v>
       </c>
       <c r="E694" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:45pm-11:30pm</v>
       </c>
       <c r="F694" t="s">
@@ -29261,7 +29675,7 @@
         <v>762</v>
       </c>
       <c r="E696" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:45pm-11:30pm</v>
       </c>
       <c r="F696" t="s">
@@ -29318,7 +29732,7 @@
         <v>747</v>
       </c>
       <c r="E698" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:45pm-11:45pm</v>
       </c>
       <c r="F698" t="s">
@@ -29378,7 +29792,7 @@
         <v>762</v>
       </c>
       <c r="E700" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:45pm-11:30pm</v>
       </c>
       <c r="F700" t="s">
@@ -29442,7 +29856,7 @@
         <v>747</v>
       </c>
       <c r="E702" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10:45pm-11:45pm</v>
       </c>
       <c r="F702" t="s">
@@ -29496,7 +29910,7 @@
         <v>747</v>
       </c>
       <c r="E704" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:00pm-11:45pm</v>
       </c>
       <c r="F704" t="s">
@@ -29559,7 +29973,7 @@
         <v>738</v>
       </c>
       <c r="E706" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:00pm-12:00am</v>
       </c>
       <c r="F706" t="s">
@@ -29619,7 +30033,7 @@
         <v>738</v>
       </c>
       <c r="E708" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:00pm-12:00am</v>
       </c>
       <c r="F708" t="s">
@@ -29683,7 +30097,7 @@
         <v>738</v>
       </c>
       <c r="E710" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:00pm-12:00am</v>
       </c>
       <c r="F710" t="s">
@@ -29740,7 +30154,7 @@
         <v>738</v>
       </c>
       <c r="E712" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:00pm-12:00am</v>
       </c>
       <c r="F712" t="s">
@@ -29794,7 +30208,7 @@
         <v>738</v>
       </c>
       <c r="E714" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:00pm-12:00am</v>
       </c>
       <c r="F714" t="s">
@@ -29857,7 +30271,7 @@
         <v>816</v>
       </c>
       <c r="E716" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:30pm-11:50pm</v>
       </c>
       <c r="F716" t="s">
@@ -29920,7 +30334,7 @@
         <v>746</v>
       </c>
       <c r="E718" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F718" t="s">
@@ -29983,7 +30397,7 @@
         <v>746</v>
       </c>
       <c r="E720" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F720" t="s">
@@ -30044,7 +30458,7 @@
         <v>746</v>
       </c>
       <c r="E722" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F722" t="s">
@@ -30104,7 +30518,7 @@
         <v>746</v>
       </c>
       <c r="E724" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F724" t="s">
@@ -30167,7 +30581,7 @@
         <v>746</v>
       </c>
       <c r="E726" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F726" t="s">
@@ -30230,7 +30644,7 @@
         <v>746</v>
       </c>
       <c r="E728" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F728" t="s">
@@ -30293,7 +30707,7 @@
         <v>746</v>
       </c>
       <c r="E730" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F730" t="s">
@@ -30357,7 +30771,7 @@
         <v>746</v>
       </c>
       <c r="E732" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F732" t="s">
@@ -30421,7 +30835,7 @@
         <v>746</v>
       </c>
       <c r="E734" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11:45pm-12:30am</v>
       </c>
       <c r="F734" t="s">
@@ -30481,7 +30895,7 @@
         <v>737</v>
       </c>
       <c r="E736" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12:00am-1:00am</v>
       </c>
       <c r="F736" t="s">
@@ -30544,7 +30958,7 @@
         <v>737</v>
       </c>
       <c r="E738" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12:00am-1:00am</v>
       </c>
       <c r="F738" t="s">
@@ -30607,7 +31021,7 @@
         <v>737</v>
       </c>
       <c r="E740" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12:00am-1:00am</v>
       </c>
       <c r="F740" t="s">
@@ -30670,7 +31084,7 @@
         <v>737</v>
       </c>
       <c r="E742" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12:00am-1:00am</v>
       </c>
       <c r="F742" t="s">
@@ -30734,7 +31148,7 @@
         <v>737</v>
       </c>
       <c r="E744" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12:00am-1:00am</v>
       </c>
       <c r="F744" t="s">
@@ -30795,7 +31209,7 @@
         <v>736</v>
       </c>
       <c r="E746" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1:00am-2:00am</v>
       </c>
       <c r="F746" t="s">
@@ -30831,7 +31245,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M746"/>
+  <autoFilter ref="M1:M746" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="R1:R124 R461:R1048576 R127:R458">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",R1)))</formula>
@@ -30848,165 +31262,175 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="N12" r:id="rId2" display="https://open.spotify.com/track/5cOGr3t8MNJ86knQfxsKFc?si=pkKvNvx7TByq993W2-QVcg"/>
-    <hyperlink ref="N32" r:id="rId3"/>
-    <hyperlink ref="N36" r:id="rId4"/>
-    <hyperlink ref="N40" r:id="rId5"/>
-    <hyperlink ref="N46" r:id="rId6"/>
-    <hyperlink ref="N62" r:id="rId7"/>
-    <hyperlink ref="N72" r:id="rId8"/>
-    <hyperlink ref="N78" r:id="rId9"/>
-    <hyperlink ref="N82" r:id="rId10"/>
-    <hyperlink ref="N96" r:id="rId11"/>
-    <hyperlink ref="N98" r:id="rId12"/>
-    <hyperlink ref="N102" r:id="rId13"/>
-    <hyperlink ref="N114" r:id="rId14"/>
-    <hyperlink ref="N116" r:id="rId15"/>
-    <hyperlink ref="N130" r:id="rId16"/>
-    <hyperlink ref="N144" r:id="rId17"/>
-    <hyperlink ref="N166" r:id="rId18"/>
-    <hyperlink ref="N168" r:id="rId19"/>
-    <hyperlink ref="N172" r:id="rId20"/>
-    <hyperlink ref="N176" r:id="rId21"/>
-    <hyperlink ref="N184" r:id="rId22"/>
-    <hyperlink ref="N188" r:id="rId23"/>
-    <hyperlink ref="N194" r:id="rId24"/>
-    <hyperlink ref="N198" r:id="rId25" display="https://open.spotify.com/track/4hVW7u1Hsrx8oRha3GdzDH?si=mUsBqAKxRrivihvHc33ifg"/>
-    <hyperlink ref="N200" r:id="rId26"/>
-    <hyperlink ref="N208" r:id="rId27"/>
-    <hyperlink ref="N210" r:id="rId28"/>
-    <hyperlink ref="N220" r:id="rId29"/>
-    <hyperlink ref="N232" r:id="rId30"/>
-    <hyperlink ref="N252" r:id="rId31"/>
-    <hyperlink ref="N246" r:id="rId32"/>
-    <hyperlink ref="N256" r:id="rId33"/>
-    <hyperlink ref="N260" r:id="rId34"/>
-    <hyperlink ref="N262" r:id="rId35"/>
-    <hyperlink ref="N266" r:id="rId36"/>
-    <hyperlink ref="N270" r:id="rId37"/>
-    <hyperlink ref="N272" r:id="rId38"/>
-    <hyperlink ref="N276" r:id="rId39"/>
-    <hyperlink ref="N284" r:id="rId40"/>
-    <hyperlink ref="N296" r:id="rId41"/>
-    <hyperlink ref="N308" r:id="rId42"/>
-    <hyperlink ref="N310" r:id="rId43"/>
-    <hyperlink ref="N312" r:id="rId44"/>
-    <hyperlink ref="N328" r:id="rId45"/>
-    <hyperlink ref="N288" r:id="rId46"/>
-    <hyperlink ref="N332" r:id="rId47"/>
-    <hyperlink ref="N342" r:id="rId48"/>
-    <hyperlink ref="N344" r:id="rId49"/>
-    <hyperlink ref="N350" r:id="rId50"/>
-    <hyperlink ref="N352" r:id="rId51"/>
-    <hyperlink ref="N356" r:id="rId52"/>
-    <hyperlink ref="N358" r:id="rId53"/>
-    <hyperlink ref="N362" r:id="rId54"/>
-    <hyperlink ref="N366" r:id="rId55"/>
-    <hyperlink ref="N370" r:id="rId56"/>
-    <hyperlink ref="N372" r:id="rId57"/>
-    <hyperlink ref="N380" r:id="rId58"/>
-    <hyperlink ref="N382" r:id="rId59"/>
-    <hyperlink ref="N384" r:id="rId60"/>
-    <hyperlink ref="N394" r:id="rId61"/>
-    <hyperlink ref="N400" r:id="rId62"/>
-    <hyperlink ref="N414" r:id="rId63"/>
-    <hyperlink ref="N430" r:id="rId64"/>
-    <hyperlink ref="N434" r:id="rId65"/>
-    <hyperlink ref="N440" r:id="rId66"/>
-    <hyperlink ref="N450" r:id="rId67"/>
-    <hyperlink ref="N454" r:id="rId68"/>
-    <hyperlink ref="N458" r:id="rId69"/>
-    <hyperlink ref="N462" r:id="rId70"/>
-    <hyperlink ref="N464" r:id="rId71"/>
-    <hyperlink ref="N470" r:id="rId72"/>
-    <hyperlink ref="N472" r:id="rId73"/>
-    <hyperlink ref="N490" r:id="rId74"/>
-    <hyperlink ref="N492" r:id="rId75"/>
-    <hyperlink ref="N496" r:id="rId76"/>
-    <hyperlink ref="N504" r:id="rId77"/>
-    <hyperlink ref="N506" r:id="rId78"/>
-    <hyperlink ref="N512" r:id="rId79"/>
-    <hyperlink ref="N518" r:id="rId80"/>
-    <hyperlink ref="N528" r:id="rId81"/>
-    <hyperlink ref="N536" r:id="rId82"/>
-    <hyperlink ref="N558" r:id="rId83"/>
-    <hyperlink ref="N560" r:id="rId84"/>
-    <hyperlink ref="N562" r:id="rId85"/>
-    <hyperlink ref="N576" r:id="rId86"/>
-    <hyperlink ref="N580" r:id="rId87"/>
-    <hyperlink ref="N590" r:id="rId88"/>
-    <hyperlink ref="N592" r:id="rId89"/>
-    <hyperlink ref="N604" r:id="rId90"/>
-    <hyperlink ref="N614" r:id="rId91"/>
-    <hyperlink ref="N616" r:id="rId92"/>
-    <hyperlink ref="N620" r:id="rId93"/>
-    <hyperlink ref="N622" r:id="rId94"/>
-    <hyperlink ref="N624" r:id="rId95"/>
-    <hyperlink ref="N628" r:id="rId96"/>
-    <hyperlink ref="N638" r:id="rId97"/>
-    <hyperlink ref="N640" r:id="rId98"/>
-    <hyperlink ref="N652" r:id="rId99"/>
-    <hyperlink ref="N654" r:id="rId100"/>
-    <hyperlink ref="N658" r:id="rId101"/>
-    <hyperlink ref="N660" r:id="rId102"/>
-    <hyperlink ref="N668" r:id="rId103"/>
-    <hyperlink ref="N674" r:id="rId104"/>
-    <hyperlink ref="N676" r:id="rId105"/>
-    <hyperlink ref="N678" r:id="rId106"/>
-    <hyperlink ref="N684" r:id="rId107"/>
-    <hyperlink ref="N688" r:id="rId108"/>
-    <hyperlink ref="N694" r:id="rId109"/>
-    <hyperlink ref="N700" r:id="rId110"/>
-    <hyperlink ref="N708" r:id="rId111"/>
-    <hyperlink ref="N720" r:id="rId112"/>
-    <hyperlink ref="N730" r:id="rId113"/>
-    <hyperlink ref="N732" r:id="rId114"/>
-    <hyperlink ref="N742" r:id="rId115"/>
-    <hyperlink ref="N744" r:id="rId116"/>
-    <hyperlink ref="N746" r:id="rId117"/>
-    <hyperlink ref="M2" r:id="rId118" display="https://focomx.focoma.org/sites/default/files/styles/medium/public/michael_kirkpatrick.jpg?itok=WUJlZXSg&quot; &gt;"/>
-    <hyperlink ref="N4" r:id="rId119"/>
-    <hyperlink ref="M666" r:id="rId120" display="https://focomx.focoma.org/sites/default/files/styles/medium/public/51304460_2802571459756773_1863165312745078784_o.jpg?itok=tXSE9KxN"/>
-    <hyperlink ref="N10" r:id="rId121" display="https://open.spotify.com/track/3SXIWd0ogFtHk6sau2mWwL?si=XL4_YbVLSBa2czYv2fnrZA"/>
-    <hyperlink ref="N2" r:id="rId122"/>
-    <hyperlink ref="N88" r:id="rId123"/>
-    <hyperlink ref="N396" r:id="rId124"/>
-    <hyperlink ref="J398" r:id="rId125"/>
-    <hyperlink ref="N432" r:id="rId126"/>
-    <hyperlink ref="N476" r:id="rId127"/>
-    <hyperlink ref="P476" r:id="rId128"/>
-    <hyperlink ref="N66" r:id="rId129"/>
-    <hyperlink ref="N120" r:id="rId130"/>
-    <hyperlink ref="J346" r:id="rId131"/>
-    <hyperlink ref="J364" r:id="rId132"/>
-    <hyperlink ref="N364" r:id="rId133"/>
-    <hyperlink ref="J418" r:id="rId134"/>
-    <hyperlink ref="J460" r:id="rId135"/>
-    <hyperlink ref="J126" r:id="rId136"/>
-    <hyperlink ref="O126" r:id="rId137"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N12" r:id="rId2" display="https://open.spotify.com/track/5cOGr3t8MNJ86knQfxsKFc?si=pkKvNvx7TByq993W2-QVcg" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N46" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N62" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N72" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N78" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N82" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N96" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N98" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N102" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N114" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N116" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N130" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N144" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N166" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N168" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N172" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N176" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N184" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N188" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N194" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N198" r:id="rId25" display="https://open.spotify.com/track/4hVW7u1Hsrx8oRha3GdzDH?si=mUsBqAKxRrivihvHc33ifg" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N200" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N208" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N210" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N220" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N232" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N252" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N246" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N256" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N260" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N262" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="N266" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N270" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N272" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N276" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N284" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N296" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N308" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N310" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N312" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N328" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N288" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N332" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N342" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N344" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N350" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N352" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N356" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N358" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N362" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N366" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="N370" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="N372" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="N380" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="N382" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="N384" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N394" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="N400" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="N414" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="N430" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="N434" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="N440" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="N450" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="N454" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="N458" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="N462" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="N464" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="N470" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="N472" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="N490" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="N492" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="N496" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="N504" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="N506" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="N512" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="N518" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="N528" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="N536" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="N558" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="N560" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="N562" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="N576" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="N580" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="N590" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="N592" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="N604" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="N614" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="N616" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="N620" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="N622" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="N624" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="N628" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="N638" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="N640" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="N652" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="N654" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="N658" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="N660" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="N668" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="N674" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="N676" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="N678" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="N684" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="N688" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="N694" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="N700" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="N708" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="N720" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="N730" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="N732" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="N742" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="N744" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="N746" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="M2" r:id="rId118" display="https://focomx.focoma.org/sites/default/files/styles/medium/public/michael_kirkpatrick.jpg?itok=WUJlZXSg&quot; &gt;" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="N4" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="M666" r:id="rId120" display="https://focomx.focoma.org/sites/default/files/styles/medium/public/51304460_2802571459756773_1863165312745078784_o.jpg?itok=tXSE9KxN" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="N10" r:id="rId121" display="https://open.spotify.com/track/3SXIWd0ogFtHk6sau2mWwL?si=XL4_YbVLSBa2czYv2fnrZA" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="N2" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="N88" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="N396" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J398" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="N432" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="N476" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="P476" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="N66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="N120" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J346" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J364" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="N364" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J418" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J460" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J126" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="O126" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J305" r:id="rId138" xr:uid="{7831B2ED-B95C-4FBF-BB23-44CBE69B8FA3}"/>
+    <hyperlink ref="N305" r:id="rId139" xr:uid="{F61DD83B-9A0C-4F9D-923C-8C78D3D03259}"/>
+    <hyperlink ref="J421" r:id="rId140" xr:uid="{DCE59368-5573-41A2-9DE6-A7EC2DEF1278}"/>
+    <hyperlink ref="J423" r:id="rId141" xr:uid="{9FC8B780-5152-4907-8F5C-281AB552020C}"/>
+    <hyperlink ref="J483" r:id="rId142" xr:uid="{921E5F51-B36A-4B89-97BB-E81909D9FE8A}"/>
+    <hyperlink ref="J587" r:id="rId143" xr:uid="{CBB81A8C-2894-43AE-8786-C35611F14D70}"/>
+    <hyperlink ref="J623" r:id="rId144" xr:uid="{AC5C3C5C-037A-44E2-BF82-A8CD5E47C954}"/>
+    <hyperlink ref="N623" r:id="rId145" xr:uid="{BD699E9B-A9AC-4099-B96B-E4524F4FA9FF}"/>
+    <hyperlink ref="J137" r:id="rId146" xr:uid="{7D4FDA5E-6F97-474A-8386-58FD5F14F90F}"/>
+    <hyperlink ref="N137" r:id="rId147" xr:uid="{06B7D592-D229-4F36-8501-5CF81994DC58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId138"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId148"/>
   <customProperties>
-    <customPr name="SSC_SHEET_GUID" r:id="rId139"/>
+    <customPr name="SSC_SHEET_GUID" r:id="rId149"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="56.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="56.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="81.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
